--- a/biology/Zoologie/Coucou_menu/Coucou_menu.xlsx
+++ b/biology/Zoologie/Coucou_menu/Coucou_menu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysococcyx minutillus
 Le Coucou menu (Chrysococcyx minutillus) est une espèce d'oiseaux de la famille des Cuculidae.
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les bordures de forêts et de marécage, de mousson et de Melaleuca.
 Son aire s'étend sur le nord et l'est de l'Australie, l'Indonésie, le sud des Philippines et la Nouvelle-Guinée.
@@ -544,7 +558,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 15 à 17 cm pour un poids similaire.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes, particulièrement d'hespéridés, de coccinelles, de scarabés, de fourmis et d'abeilles.
 </t>
@@ -606,7 +624,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des 12 sous-espèces suivantes (ordre phylogénique) :
 Chrysococcyx minutillus peninsularis Parker, 1981
